--- a/data/SVN.xlsx
+++ b/data/SVN.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="352">
   <si>
     <t>Liên Hệ</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>SVN</t>
@@ -21985,7 +21985,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF32B87-0276-EF4E-963C-ED48B34C3BF9}">
-  <dimension ref="A1:AP60"/>
+  <dimension ref="A1:AQ60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -22035,6 +22035,7 @@
     <col min="40" max="40" width="16.28515625" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="16.28515625" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="16.28515625" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="15.625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -22204,6 +22205,9 @@
       <c r="AP11" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="AQ11" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="24" t="s">
@@ -22329,6 +22333,9 @@
       <c r="AP12" s="21" t="n">
         <v>4.25791392E8</v>
       </c>
+      <c r="AQ12" s="21" t="n">
+        <v>8.1918577E7</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="24" t="s">
@@ -22454,6 +22461,9 @@
       <c r="AP13" s="21" t="n">
         <v>9113181.0</v>
       </c>
+      <c r="AQ13" s="21" t="n">
+        <v>9113181.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="24" t="s">
@@ -22579,6 +22589,9 @@
       <c r="AP14" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ14" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="24" t="s">
@@ -22704,6 +22717,9 @@
       <c r="AP15" s="21" t="n">
         <v>-1794831.0</v>
       </c>
+      <c r="AQ15" s="21" t="n">
+        <v>1794831.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="24" t="s">
@@ -22829,6 +22845,9 @@
       <c r="AP16" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ16" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="24" t="s">
@@ -22954,6 +22973,9 @@
       <c r="AP17" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ17" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="24" t="s">
@@ -23079,6 +23101,9 @@
       <c r="AP18" s="21" t="n">
         <v>-5.80787566E8</v>
       </c>
+      <c r="AQ18" s="21" t="n">
+        <v>-6.90812469E8</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="24" t="s">
@@ -23204,6 +23229,9 @@
       <c r="AP19" s="21" t="n">
         <v>1.49989315E8</v>
       </c>
+      <c r="AQ19" s="21" t="n">
+        <v>3.4187671E7</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="24" t="s">
@@ -23329,6 +23357,9 @@
       <c r="AP20" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ20" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="24" t="s">
@@ -23454,6 +23485,9 @@
       <c r="AP21" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ21" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="24" t="s">
@@ -23579,6 +23613,9 @@
       <c r="AP22" s="21" t="n">
         <v>-2.9689269472E10</v>
       </c>
+      <c r="AQ22" s="21" t="n">
+        <v>-8.330297816E9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="22" t="s">
@@ -23704,6 +23741,9 @@
       <c r="AP23" s="21" t="n">
         <v>2311491.0</v>
       </c>
+      <c r="AQ23" s="21" t="n">
+        <v>-5.63798209E8</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="22" t="s">
@@ -23829,6 +23869,9 @@
       <c r="AP24" s="21" t="n">
         <v>-3.1513167078E10</v>
       </c>
+      <c r="AQ24" s="21" t="n">
+        <v>-5.28478889E9</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="22" t="s">
@@ -23954,6 +23997,9 @@
       <c r="AP25" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ25" s="21" t="n">
+        <v>-1340000.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="22" t="s">
@@ -24079,6 +24125,9 @@
       <c r="AP26" s="21" t="n">
         <v>2.126380554E9</v>
       </c>
+      <c r="AQ26" s="21" t="n">
+        <v>-2.476192618E9</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="22" t="s">
@@ -24204,6 +24253,9 @@
       <c r="AP27" s="21" t="n">
         <v>-3.0863093E7</v>
       </c>
+      <c r="AQ27" s="21" t="n">
+        <v>3.0355699E7</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="22" t="s">
@@ -24329,6 +24381,9 @@
       <c r="AP28" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ28" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="22" t="s">
@@ -24454,6 +24509,9 @@
       <c r="AP29" s="21" t="n">
         <v>-1.51426849E8</v>
       </c>
+      <c r="AQ29" s="21" t="n">
+        <v>-3.2750137E7</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="22" t="s">
@@ -24579,6 +24637,9 @@
       <c r="AP30" s="21" t="n">
         <v>-1.22504497E8</v>
       </c>
+      <c r="AQ30" s="21" t="n">
+        <v>-1783661.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="22" t="s">
@@ -24704,6 +24765,9 @@
       <c r="AP31" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ31" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="22" t="s">
@@ -24829,6 +24893,9 @@
       <c r="AP32" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ32" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="24" t="s">
@@ -24954,6 +25021,9 @@
       <c r="AP33" s="21" t="n">
         <v>1.9612353574E10</v>
       </c>
+      <c r="AQ33" s="21" t="n">
+        <v>1.4929146424E10</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="22" t="s">
@@ -25079,6 +25149,9 @@
       <c r="AP34" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ34" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="22" t="s">
@@ -25204,6 +25277,9 @@
       <c r="AP35" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ35" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="22" t="s">
@@ -25329,6 +25405,9 @@
       <c r="AP36" s="21" t="n">
         <v>-1.45E10</v>
       </c>
+      <c r="AQ36" s="21" t="n">
+        <v>1.45E10</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="22" t="s">
@@ -25454,6 +25533,9 @@
       <c r="AP37" s="21" t="n">
         <v>-1.565E10</v>
       </c>
+      <c r="AQ37" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="22" t="s">
@@ -25579,6 +25661,9 @@
       <c r="AP38" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ38" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="22" t="s">
@@ -25704,6 +25789,9 @@
       <c r="AP39" s="21" t="n">
         <v>4.91815E10</v>
       </c>
+      <c r="AQ39" s="21" t="n">
+        <v>3.68499998E8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="22" t="s">
@@ -25829,6 +25917,9 @@
       <c r="AP40" s="21" t="n">
         <v>5.80853574E8</v>
       </c>
+      <c r="AQ40" s="21" t="n">
+        <v>6.0646426E7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="24" t="s">
@@ -25954,6 +26045,9 @@
       <c r="AP41" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ41" s="21" t="n">
+        <v>-6.6E9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="22" t="s">
@@ -26079,6 +26173,9 @@
       <c r="AP42" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ42" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="22" t="s">
@@ -26204,6 +26301,9 @@
       <c r="AP43" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ43" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="22" t="s">
@@ -26329,6 +26429,9 @@
       <c r="AP44" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ44" s="21" t="n">
+        <v>-6.6E9</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="22" t="s">
@@ -26454,6 +26557,9 @@
       <c r="AP45" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ45" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="22" t="s">
@@ -26579,6 +26685,9 @@
       <c r="AP46" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ46" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="22" t="s">
@@ -26704,6 +26813,9 @@
       <c r="AP47" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ47" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="22" t="s">
@@ -26829,6 +26941,9 @@
       <c r="AP48" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ48" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="24" t="s">
@@ -26954,6 +27069,9 @@
       <c r="AP49" s="21" t="n">
         <v>-1.0076915898E10</v>
       </c>
+      <c r="AQ49" s="21" t="n">
+        <v>-1151392.0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="24" t="s">
@@ -27079,6 +27197,9 @@
       <c r="AP50" s="21" t="n">
         <v>1.0344740151E10</v>
       </c>
+      <c r="AQ50" s="21" t="n">
+        <v>2.67824253E8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="24" t="s">
@@ -27204,6 +27325,9 @@
       <c r="AP51" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AQ51" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="24" t="s">
@@ -27328,6 +27452,9 @@
       </c>
       <c r="AP52" s="21" t="n">
         <v>2.67824253E8</v>
+      </c>
+      <c r="AQ52" s="21" t="n">
+        <v>2.66672861E8</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -27368,7 +27495,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B10:I10"/>
-    <mergeCell ref="K10:AP10"/>
+    <mergeCell ref="K10:AQ10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A58" r:id="rId1" display="https://www.vietcap.com.vn/" xr:uid="{2404128C-51EF-8E44-9BE0-4A8D207DD5D8}"/>
@@ -27382,7 +27509,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACDB1F9-64B2-F64B-91A6-B0AAFF7D49C4}">
-  <dimension ref="A1:AI176"/>
+  <dimension ref="A1:AJ176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -27425,6 +27552,7 @@
     <col min="33" max="33" width="15.625" customWidth="true" bestFit="true"/>
     <col min="34" max="34" width="15.625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="15.625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="15.625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27573,6 +27701,9 @@
       <c r="AI11" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="AJ11" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="28" t="s">
@@ -27677,6 +27808,9 @@
       <c r="AI12" s="25" t="n">
         <v>2.67824253E8</v>
       </c>
+      <c r="AJ12" s="25" t="n">
+        <v>2.68456522E8</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="26" t="s">
@@ -27781,6 +27915,9 @@
       <c r="AI13" s="25" t="n">
         <v>2.4319594E8</v>
       </c>
+      <c r="AJ13" s="25" t="n">
+        <v>2.51088976E8</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="26" t="s">
@@ -27885,6 +28022,9 @@
       <c r="AI14" s="25" t="n">
         <v>2.4628313E7</v>
       </c>
+      <c r="AJ14" s="25" t="n">
+        <v>1.7367546E7</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="26" t="s">
@@ -27989,6 +28129,9 @@
       <c r="AI15" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ15" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="26" t="s">
@@ -28093,6 +28236,9 @@
       <c r="AI16" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ16" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="26" t="s">
@@ -28197,6 +28343,9 @@
       <c r="AI17" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ17" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="28" t="s">
@@ -28301,6 +28450,9 @@
       <c r="AI18" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ18" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="26" t="s">
@@ -28405,6 +28557,9 @@
       <c r="AI19" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ19" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="26" t="s">
@@ -28509,6 +28664,9 @@
       <c r="AI20" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ20" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="26" t="s">
@@ -28613,6 +28771,9 @@
       <c r="AI21" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ21" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="26" t="s">
@@ -28717,6 +28878,9 @@
       <c r="AI22" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ22" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="26" t="s">
@@ -28821,6 +28985,9 @@
       <c r="AI23" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ23" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="28" t="s">
@@ -28925,6 +29092,9 @@
       <c r="AI24" s="25" t="n">
         <v>4.7300617528E10</v>
       </c>
+      <c r="AJ24" s="25" t="n">
+        <v>5.4078276418E10</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="26" t="s">
@@ -29029,6 +29199,9 @@
       <c r="AI25" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ25" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="26" t="s">
@@ -29133,6 +29306,9 @@
       <c r="AI26" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ26" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="26" t="s">
@@ -29237,6 +29413,9 @@
       <c r="AI27" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ27" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="26" t="s">
@@ -29341,6 +29520,9 @@
       <c r="AI28" s="25" t="n">
         <v>4.7300617528E10</v>
       </c>
+      <c r="AJ28" s="25" t="n">
+        <v>5.4078276418E10</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="28" t="s">
@@ -29445,6 +29627,9 @@
       <c r="AI29" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ29" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="26" t="s">
@@ -29549,6 +29734,9 @@
       <c r="AI30" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ30" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="26" t="s">
@@ -29653,6 +29841,9 @@
       <c r="AI31" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ31" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="26" t="s">
@@ -29757,6 +29948,9 @@
       <c r="AI32" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ32" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="26" t="s">
@@ -29861,6 +30055,9 @@
       <c r="AI33" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ33" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="26" t="s">
@@ -29965,6 +30162,9 @@
       <c r="AI34" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ34" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="26" t="s">
@@ -30069,6 +30269,9 @@
       <c r="AI35" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ35" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="26" t="s">
@@ -30173,6 +30376,9 @@
       <c r="AI36" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ36" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="26" t="s">
@@ -30277,6 +30483,9 @@
       <c r="AI37" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ37" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="26" t="s">
@@ -30381,6 +30590,9 @@
       <c r="AI38" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ38" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="28" t="s">
@@ -30485,6 +30697,9 @@
       <c r="AI39" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ39" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="26" t="s">
@@ -30589,6 +30804,9 @@
       <c r="AI40" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ40" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="26" t="s">
@@ -30693,6 +30911,9 @@
       <c r="AI41" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ41" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="26" t="s">
@@ -30797,6 +31018,9 @@
       <c r="AI42" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ42" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="26" t="s">
@@ -30901,6 +31125,9 @@
       <c r="AI43" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ43" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="28" t="s">
@@ -31005,6 +31232,9 @@
       <c r="AI44" s="25" t="n">
         <v>1.0062513429E10</v>
       </c>
+      <c r="AJ44" s="25" t="n">
+        <v>1.0062513429E10</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="26" t="s">
@@ -31109,6 +31339,9 @@
       <c r="AI45" s="25" t="n">
         <v>6.2513429E7</v>
       </c>
+      <c r="AJ45" s="25" t="n">
+        <v>6.2513429E7</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="26" t="s">
@@ -31213,6 +31446,9 @@
       <c r="AI46" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ46" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="26" t="s">
@@ -31317,6 +31553,9 @@
       <c r="AI47" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ47" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="26" t="s">
@@ -31421,6 +31660,9 @@
       <c r="AI48" s="25" t="n">
         <v>1.0E10</v>
       </c>
+      <c r="AJ48" s="25" t="n">
+        <v>1.0E10</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="28" t="s">
@@ -31525,6 +31767,9 @@
       <c r="AI49" s="25" t="n">
         <v>1.82263636E8</v>
       </c>
+      <c r="AJ49" s="25" t="n">
+        <v>1.82263636E8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="26" t="s">
@@ -31629,6 +31874,9 @@
       <c r="AI50" s="25" t="n">
         <v>1.82263636E8</v>
       </c>
+      <c r="AJ50" s="25" t="n">
+        <v>1.82263636E8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="26" t="s">
@@ -31733,6 +31981,9 @@
       <c r="AI51" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ51" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="26" t="s">
@@ -31837,6 +32088,9 @@
       <c r="AI52" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ52" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="28" t="s">
@@ -31941,6 +32195,9 @@
       <c r="AI53" s="25" t="n">
         <v>1.09358172E8</v>
       </c>
+      <c r="AJ53" s="25" t="n">
+        <v>1.18471353E8</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="26" t="s">
@@ -32045,6 +32302,9 @@
       <c r="AI54" s="25" t="n">
         <v>9.113181E7</v>
       </c>
+      <c r="AJ54" s="25" t="n">
+        <v>9.113181E7</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="26" t="s">
@@ -32149,6 +32409,9 @@
       <c r="AI55" s="25" t="n">
         <v>1.8226362E7</v>
       </c>
+      <c r="AJ55" s="25" t="n">
+        <v>2.7339543E7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="26" t="s">
@@ -32253,6 +32516,9 @@
       <c r="AI56" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ56" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="28" t="s">
@@ -32357,6 +32623,9 @@
       <c r="AI57" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ57" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="26" t="s">
@@ -32461,6 +32730,9 @@
       <c r="AI58" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ58" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="26" t="s">
@@ -32565,6 +32837,9 @@
       <c r="AI59" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ59" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="26" t="s">
@@ -32669,6 +32944,9 @@
       <c r="AI60" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ60" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="28" t="s">
@@ -32773,6 +33051,9 @@
       <c r="AI61" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ61" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="26" t="s">
@@ -32877,6 +33158,9 @@
       <c r="AI62" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ62" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="26" t="s">
@@ -32981,6 +33265,9 @@
       <c r="AI63" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ63" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="26" t="s">
@@ -33085,6 +33372,9 @@
       <c r="AI64" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ64" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="28" t="s">
@@ -33189,6 +33479,9 @@
       <c r="AI65" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ65" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="26" t="s">
@@ -33293,6 +33586,9 @@
       <c r="AI66" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ66" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="26" t="s">
@@ -33397,6 +33693,9 @@
       <c r="AI67" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ67" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="26" t="s">
@@ -33501,6 +33800,9 @@
       <c r="AI68" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ68" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="28" t="s">
@@ -33605,6 +33907,9 @@
       <c r="AI69" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ69" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="26" t="s">
@@ -33709,6 +34014,9 @@
       <c r="AI70" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ70" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="26" t="s">
@@ -33813,6 +34121,9 @@
       <c r="AI71" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ71" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="26" t="s">
@@ -33917,6 +34228,9 @@
       <c r="AI72" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ72" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="28" t="s">
@@ -34021,6 +34335,9 @@
       <c r="AI73" s="25" t="n">
         <v>7.5E10</v>
       </c>
+      <c r="AJ73" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="26" t="s">
@@ -34125,6 +34442,9 @@
       <c r="AI74" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ74" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="26" t="s">
@@ -34229,6 +34549,9 @@
       <c r="AI75" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ75" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="26" t="s">
@@ -34333,6 +34656,9 @@
       <c r="AI76" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ76" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="26" t="s">
@@ -34437,6 +34763,9 @@
       <c r="AI77" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ77" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="26" t="s">
@@ -34541,6 +34870,9 @@
       <c r="AI78" s="25" t="n">
         <v>7.5E10</v>
       </c>
+      <c r="AJ78" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="28" t="s">
@@ -34645,6 +34977,9 @@
       <c r="AI79" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ79" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="26" t="s">
@@ -34749,6 +35084,9 @@
       <c r="AI80" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ80" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="26" t="s">
@@ -34853,6 +35191,9 @@
       <c r="AI81" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ81" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="28" t="s">
@@ -34957,6 +35298,9 @@
       <c r="AI82" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ82" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="26" t="s">
@@ -35061,6 +35405,9 @@
       <c r="AI83" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ83" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="26" t="s">
@@ -35165,6 +35512,9 @@
       <c r="AI84" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ84" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="26" t="s">
@@ -35269,6 +35619,9 @@
       <c r="AI85" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ85" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="28" t="s">
@@ -35373,6 +35726,9 @@
       <c r="AI86" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ86" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="26" t="s">
@@ -35477,6 +35833,9 @@
       <c r="AI87" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ87" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="26" t="s">
@@ -35581,6 +35940,9 @@
       <c r="AI88" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ88" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="26" t="s">
@@ -35685,6 +36047,9 @@
       <c r="AI89" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ89" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="28" t="s">
@@ -35789,6 +36154,9 @@
       <c r="AI90" s="25" t="n">
         <v>3.17189087E8</v>
       </c>
+      <c r="AJ90" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="26" t="s">
@@ -35893,6 +36261,9 @@
       <c r="AI91" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ91" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="26" t="s">
@@ -35997,6 +36368,9 @@
       <c r="AI92" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ92" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="26" t="s">
@@ -36101,6 +36475,9 @@
       <c r="AI93" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ93" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="26" t="s">
@@ -36205,6 +36582,9 @@
       <c r="AI94" s="25" t="n">
         <v>3.11837778E8</v>
       </c>
+      <c r="AJ94" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="26" t="s">
@@ -36309,6 +36689,9 @@
       <c r="AI95" s="25" t="n">
         <v>5351309.0</v>
       </c>
+      <c r="AJ95" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="26" t="s">
@@ -36413,6 +36796,9 @@
       <c r="AI96" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ96" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="26" t="s">
@@ -36517,6 +36903,9 @@
       <c r="AI97" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ97" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="26" t="s">
@@ -36621,6 +37010,9 @@
       <c r="AI98" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ98" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="26" t="s">
@@ -36725,6 +37117,9 @@
       <c r="AI99" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ99" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="28" t="s">
@@ -36829,6 +37224,9 @@
       <c r="AI100" s="25" t="n">
         <v>8001370.0</v>
       </c>
+      <c r="AJ100" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="26" t="s">
@@ -36933,6 +37331,9 @@
       <c r="AI101" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ101" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="26" t="s">
@@ -37037,6 +37438,9 @@
       <c r="AI102" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ102" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="26" t="s">
@@ -37141,6 +37545,9 @@
       <c r="AI103" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ103" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="26" t="s">
@@ -37245,6 +37652,9 @@
       <c r="AI104" s="25" t="n">
         <v>8001370.0</v>
       </c>
+      <c r="AJ104" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="28" t="s">
@@ -37349,6 +37759,9 @@
       <c r="AI105" s="25" t="n">
         <v>1.35916963E8</v>
       </c>
+      <c r="AJ105" s="25" t="n">
+        <v>7.3810333E7</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="26" t="s">
@@ -37453,6 +37866,9 @@
       <c r="AI106" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ106" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="26" t="s">
@@ -37557,6 +37973,9 @@
       <c r="AI107" s="25" t="n">
         <v>3.971045E7</v>
       </c>
+      <c r="AJ107" s="25" t="n">
+        <v>3.971045E7</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="26" t="s">
@@ -37661,6 +38080,9 @@
       <c r="AI108" s="25" t="n">
         <v>3.7082603E7</v>
       </c>
+      <c r="AJ108" s="25" t="n">
+        <v>2.7086603E7</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="26" t="s">
@@ -37765,6 +38187,9 @@
       <c r="AI109" s="25" t="n">
         <v>6371184.0</v>
       </c>
+      <c r="AJ109" s="25" t="n">
+        <v>5019684.0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="26" t="s">
@@ -37869,6 +38294,9 @@
       <c r="AI110" s="25" t="n">
         <v>2666353.0</v>
       </c>
+      <c r="AJ110" s="25" t="n">
+        <v>1882353.0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="26" t="s">
@@ -37973,6 +38401,9 @@
       <c r="AI111" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ111" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="26" t="s">
@@ -38077,6 +38508,9 @@
       <c r="AI112" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ112" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="26" t="s">
@@ -38181,6 +38615,9 @@
       <c r="AI113" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ113" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="26" t="s">
@@ -38285,6 +38722,9 @@
       <c r="AI114" s="25" t="n">
         <v>5.0086373E7</v>
       </c>
+      <c r="AJ114" s="25" t="n">
+        <v>111243.0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="28" t="s">
@@ -38389,6 +38829,9 @@
       <c r="AI115" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ115" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="26" t="s">
@@ -38493,6 +38936,9 @@
       <c r="AI116" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ116" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="26" t="s">
@@ -38597,6 +39043,9 @@
       <c r="AI117" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ117" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="26" t="s">
@@ -38701,6 +39150,9 @@
       <c r="AI118" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ118" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="26" t="s">
@@ -38805,6 +39257,9 @@
       <c r="AI119" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ119" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="26" t="s">
@@ -38909,6 +39364,9 @@
       <c r="AI120" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ120" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="28" t="s">
@@ -39013,6 +39471,9 @@
       <c r="AI121" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ121" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="26" t="s">
@@ -39117,6 +39578,9 @@
       <c r="AI122" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ122" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="26" t="s">
@@ -39221,6 +39685,9 @@
       <c r="AI123" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ123" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="28" t="s">
@@ -39325,6 +39792,9 @@
       <c r="AI124" s="25" t="n">
         <v>9.941385E9</v>
       </c>
+      <c r="AJ124" s="25" t="n">
+        <v>3.39352E9</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="26" t="s">
@@ -39429,6 +39899,9 @@
       <c r="AI125" s="25" t="n">
         <v>9.941385E9</v>
       </c>
+      <c r="AJ125" s="25" t="n">
+        <v>3.39352E9</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="26" t="s">
@@ -39533,6 +40006,9 @@
       <c r="AI126" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ126" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="26" t="s">
@@ -39637,6 +40113,9 @@
       <c r="AI127" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ127" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="28" t="s">
@@ -39741,6 +40220,9 @@
       <c r="AI128" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ128" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="26" t="s">
@@ -39845,6 +40327,9 @@
       <c r="AI129" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ129" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="26" t="s">
@@ -39949,6 +40434,9 @@
       <c r="AI130" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ130" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="26" t="s">
@@ -40053,6 +40541,9 @@
       <c r="AI131" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ131" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="26" t="s">
@@ -40157,6 +40648,9 @@
       <c r="AI132" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ132" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="26" t="s">
@@ -40261,6 +40755,9 @@
       <c r="AI133" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ133" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="26" t="s">
@@ -40365,6 +40862,9 @@
       <c r="AI134" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ134" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="28" t="s">
@@ -40469,6 +40969,9 @@
       <c r="AI135" s="25" t="n">
         <v>9.86432E9</v>
       </c>
+      <c r="AJ135" s="25" t="n">
+        <v>3.3634E9</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="26" t="s">
@@ -40573,6 +41076,9 @@
       <c r="AI136" s="25" t="n">
         <v>9.86432E9</v>
       </c>
+      <c r="AJ136" s="25" t="n">
+        <v>3.3634E9</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="26" t="s">
@@ -40677,6 +41183,9 @@
       <c r="AI137" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ137" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="26" t="s">
@@ -40781,6 +41290,9 @@
       <c r="AI138" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ138" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="26" t="s">
@@ -40885,6 +41397,9 @@
       <c r="AI139" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ139" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="26" t="s">
@@ -40989,6 +41504,9 @@
       <c r="AI140" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ140" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="26" t="s">
@@ -41093,6 +41611,9 @@
       <c r="AI141" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ141" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="26" t="s">
@@ -41197,6 +41718,9 @@
       <c r="AI142" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ142" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="26" t="s">
@@ -41301,6 +41825,9 @@
       <c r="AI143" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ143" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="28" t="s">
@@ -41405,6 +41932,9 @@
       <c r="AI144" s="25" t="n">
         <v>5.80787566E8</v>
       </c>
+      <c r="AJ144" s="25" t="n">
+        <v>6.90812469E8</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="26" t="s">
@@ -41509,6 +42039,9 @@
       <c r="AI145" s="25" t="n">
         <v>2.290723437E9</v>
       </c>
+      <c r="AJ145" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="26" t="s">
@@ -41613,6 +42146,9 @@
       <c r="AI146" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ146" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="26" t="s">
@@ -41717,6 +42253,9 @@
       <c r="AI147" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ147" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="26" t="s">
@@ -41821,6 +42360,9 @@
       <c r="AI148" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ148" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="26" t="s">
@@ -41925,6 +42467,9 @@
       <c r="AI149" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ149" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="26" t="s">
@@ -42029,6 +42574,9 @@
       <c r="AI150" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ150" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="26" t="s">
@@ -42133,6 +42681,9 @@
       <c r="AI151" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ151" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="26" t="s">
@@ -42237,6 +42788,9 @@
       <c r="AI152" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ152" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="26" t="s">
@@ -42341,6 +42895,9 @@
       <c r="AI153" s="25" t="n">
         <v>-1.709935871E9</v>
       </c>
+      <c r="AJ153" s="25" t="n">
+        <v>6.90812469E8</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="28" t="s">
@@ -42445,6 +43002,9 @@
       <c r="AI154" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ154" s="25" t="n">
+        <v>3.4187671E7</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="26" t="s">
@@ -42549,6 +43109,9 @@
       <c r="AI155" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ155" s="25" t="n">
+        <v>3.4187671E7</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="26" t="s">
@@ -42653,6 +43216,9 @@
       <c r="AI156" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ156" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="26" t="s">
@@ -42757,6 +43323,9 @@
       <c r="AI157" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ157" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="26" t="s">
@@ -42861,6 +43430,9 @@
       <c r="AI158" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ158" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="26" t="s">
@@ -42965,6 +43537,9 @@
       <c r="AI159" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ159" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="26" t="s">
@@ -43069,6 +43644,9 @@
       <c r="AI160" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ160" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="26" t="s">
@@ -43173,6 +43751,9 @@
       <c r="AI161" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ161" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="26" t="s">
@@ -43277,6 +43858,9 @@
       <c r="AI162" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ162" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="28" t="s">
@@ -43381,6 +43965,9 @@
       <c r="AI163" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ163" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="26" t="s">
@@ -43485,6 +44072,9 @@
       <c r="AI164" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ164" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="26" t="s">
@@ -43589,6 +44179,9 @@
       <c r="AI165" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ165" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="26" t="s">
@@ -43693,6 +44286,9 @@
       <c r="AI166" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ166" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="26" t="s">
@@ -43797,6 +44393,9 @@
       <c r="AI167" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AJ167" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="26" t="s">
@@ -43899,6 +44498,9 @@
         <v>0.0</v>
       </c>
       <c r="AI168" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AJ168" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -43940,7 +44542,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B10:I10"/>
-    <mergeCell ref="K10:AI10"/>
+    <mergeCell ref="K10:AJ10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A174" r:id="rId1" display="https://www.vietcap.com.vn/" xr:uid="{D6386FB0-752A-884E-829A-45A876D98EB2}"/>

--- a/data/SVN.xlsx
+++ b/data/SVN.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>SVN</t>

--- a/data/SVN.xlsx
+++ b/data/SVN.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>SVN</t>

--- a/data/SVN.xlsx
+++ b/data/SVN.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>SVN</t>
